--- a/Data/EC/NIT-9006258501.xlsx
+++ b/Data/EC/NIT-9006258501.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69412198-D987-40C4-AF5B-107C16D087D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97ED82B-64FA-47AE-A40D-9716B9BF7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9226CB37-004C-486E-9666-6A905E71699E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D34A9579-39F5-4A4C-8D09-22DC43D27B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,103 +65,91 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1124372258</t>
+  </si>
+  <si>
+    <t>NELVIS ROSANA DAZA PALACIO</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>73189705</t>
   </si>
   <si>
     <t>ANDRES OSCAR GOMEZ CHICO</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>9186667</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO HURTADO OROZCO</t>
+  </si>
+  <si>
+    <t>45581746</t>
+  </si>
+  <si>
+    <t>BEISI DAVINA NARVAEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>73147178</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO CHICO SIMPSON</t>
+  </si>
+  <si>
+    <t>42205333</t>
+  </si>
+  <si>
+    <t>MARIELA CRISTINA CARDENAS BARRIOS</t>
+  </si>
+  <si>
+    <t>7917439</t>
+  </si>
+  <si>
+    <t>FRANKLIN PADILLA VASQUEZ</t>
+  </si>
+  <si>
+    <t>33214178</t>
+  </si>
+  <si>
+    <t>MARIELA LARIOS MARTINEZ</t>
+  </si>
+  <si>
+    <t>78105809</t>
+  </si>
+  <si>
+    <t>CRISTOBAL DE JESUS VERGARA MENDEZ</t>
+  </si>
+  <si>
+    <t>45761457</t>
+  </si>
+  <si>
+    <t>MIGUELINA LAMADRID GOMEZ</t>
+  </si>
+  <si>
+    <t>1143402839</t>
+  </si>
+  <si>
+    <t>MANUEL FERNANDO VERGARA TORRES</t>
+  </si>
+  <si>
+    <t>32938666</t>
+  </si>
+  <si>
+    <t>CAROL KATHERINE CARVAL ROCHA</t>
+  </si>
+  <si>
+    <t>32937844</t>
+  </si>
+  <si>
+    <t>MARYURIS VALDES MATTOS</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>45527160</t>
-  </si>
-  <si>
-    <t>IVON LORENA JIMENEZ VILORIA</t>
-  </si>
-  <si>
-    <t>9186667</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO HURTADO OROZCO</t>
-  </si>
-  <si>
-    <t>45581746</t>
-  </si>
-  <si>
-    <t>BEISI DAVINA NARVAEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>73147178</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO CHICO SIMPSON</t>
-  </si>
-  <si>
-    <t>1002428822</t>
-  </si>
-  <si>
-    <t>FELIX JOSE ALMEIDA HERRERA</t>
-  </si>
-  <si>
-    <t>42205333</t>
-  </si>
-  <si>
-    <t>MARIELA CRISTINA CARDENAS BARRIOS</t>
-  </si>
-  <si>
-    <t>7917439</t>
-  </si>
-  <si>
-    <t>FRANKLIN PADILLA VASQUEZ</t>
-  </si>
-  <si>
-    <t>33214178</t>
-  </si>
-  <si>
-    <t>MARIELA LARIOS MARTINEZ</t>
-  </si>
-  <si>
-    <t>78105809</t>
-  </si>
-  <si>
-    <t>CRISTOBAL DE JESUS VERGARA MENDEZ</t>
-  </si>
-  <si>
-    <t>45761457</t>
-  </si>
-  <si>
-    <t>MIGUELINA LAMADRID GOMEZ</t>
-  </si>
-  <si>
-    <t>1143402839</t>
-  </si>
-  <si>
-    <t>MANUEL FERNANDO VERGARA TORRES</t>
-  </si>
-  <si>
-    <t>32938666</t>
-  </si>
-  <si>
-    <t>CAROL KATHERINE CARVAL ROCHA</t>
-  </si>
-  <si>
-    <t>1124372258</t>
-  </si>
-  <si>
-    <t>NELVIS ROSANA DAZA PALACIO</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>32937844</t>
-  </si>
-  <si>
-    <t>MARYURIS VALDES MATTOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +248,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +263,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +463,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +507,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +563,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047BB4FA-F659-54ED-0161-43CCCD9F4C4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E9CBA3-ABAB-7267-4B79-6C15CFDD2265}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +914,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A01CA4-C752-4159-9FF7-C2CFA453BC3B}">
-  <dimension ref="B2:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B918C162-8F95-4F02-A0D3-9FDF5E4C5FE8}">
+  <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +939,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +984,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1016,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>938558</v>
+        <v>833222</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,14 +1032,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -1081,13 +1069,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1104,10 +1092,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1118,13 +1106,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>35112</v>
@@ -1141,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1164,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1187,13 +1175,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1210,19 +1198,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1233,13 +1221,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1256,13 +1244,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1279,13 +1267,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1302,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1325,13 +1313,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1348,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1371,13 +1359,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1394,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1417,13 +1405,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1440,13 +1428,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1463,13 +1451,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1486,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1509,13 +1497,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1532,13 +1520,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1555,13 +1543,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1578,13 +1566,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1601,13 +1589,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1620,125 +1608,56 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G39" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
+      <c r="E39" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G40" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G41" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G42" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="F39" s="24">
+        <v>35112</v>
+      </c>
+      <c r="G39" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="H45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H44:J44"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
